--- a/fuck.xlsx
+++ b/fuck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Code\Python\Real Projects\Dad\MRZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B611D-4C53-45D5-A4EE-11CFD0DB1AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9B72B-32A2-46A7-8E4C-DDD575BD76FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="8280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>TOE</t>
+  </si>
+  <si>
+    <t>ANNASMARIACKKK KKKKKKKEKKEKKEK</t>
+  </si>
+  <si>
+    <t>RIKSSON</t>
+  </si>
+  <si>
+    <t>L898902C3</t>
+  </si>
+  <si>
+    <t>UTO</t>
+  </si>
+  <si>
+    <t>12/08/1974</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>15/04/2012</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>passport number</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>date of birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>expiration date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,14 +395,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>